--- a/data/2011-2012/chart2_2012.xlsx
+++ b/data/2011-2012/chart2_2012.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazeldespain/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hazeldespain/Desktop/TouristData/data/2011-2012/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E82EFF-12B5-634F-A981-88558EF8C5D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07DB6F98-5EE0-ED40-8643-23819A8F9E89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19680" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
-  <si>
-    <t> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>London</t>
   </si>
@@ -92,13 +89,16 @@
     <t>Shanghai</t>
   </si>
   <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>dollar_billion</t>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>City Name</t>
+  </si>
+  <si>
+    <t>Overnight International Visitor Spend (US$ bn)</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -137,10 +137,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -456,54 +455,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443A253C-8DEF-8E43-9D51-8E43D26F73AD}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="3"/>
+    <col min="3" max="3" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>21.1</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>2011</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>19.399999999999999</v>
       </c>
-      <c r="D3" t="s">
-        <v>0</v>
+      <c r="D3" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,13 +514,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
         <v>19.3</v>
       </c>
-      <c r="D4" t="s">
-        <v>0</v>
+      <c r="D4" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -525,13 +528,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
         <v>17.8</v>
       </c>
-      <c r="D5" t="s">
-        <v>0</v>
+      <c r="D5" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,13 +542,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
         <v>12.7</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
+      <c r="D6" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -553,13 +556,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
         <v>12.5</v>
       </c>
-      <c r="D7" t="s">
-        <v>0</v>
+      <c r="D7" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,13 +570,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
         <v>11.5</v>
       </c>
-      <c r="D8" t="s">
-        <v>0</v>
+      <c r="D8" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -581,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>0</v>
+      <c r="D9" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,13 +598,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
         <v>10.9</v>
       </c>
-      <c r="D10" t="s">
-        <v>0</v>
+      <c r="D10" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,13 +612,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
         <v>10.6</v>
       </c>
-      <c r="D11" t="s">
-        <v>0</v>
+      <c r="D11" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
         <v>10.6</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
+      <c r="D12" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,13 +640,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
         <v>10.5</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
+      <c r="D13" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -651,13 +654,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
         <v>10.5</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
+      <c r="D14" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -665,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
         <v>9.9</v>
       </c>
-      <c r="D15" t="s">
-        <v>0</v>
+      <c r="D15" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,13 +682,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
         <v>9.5</v>
       </c>
-      <c r="D16" t="s">
-        <v>0</v>
+      <c r="D16" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -693,13 +696,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
         <v>8.9</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
+      <c r="D17" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -707,13 +710,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D18" t="s">
-        <v>0</v>
+      <c r="D18" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -721,13 +724,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D19" t="s">
-        <v>0</v>
+      <c r="D19" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,13 +738,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D20" t="s">
-        <v>0</v>
+      <c r="D20" s="1">
+        <v>2011</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,28 +752,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>0</v>
+      <c r="D21" s="1">
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
